--- a/data/pca/factorExposure/factorExposure_2009-07-07.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-07-07.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.01631946597367239</v>
+        <v>0.0162186193614825</v>
       </c>
       <c r="C2">
-        <v>0.001295160983496066</v>
+        <v>-0.0009756676927118251</v>
       </c>
       <c r="D2">
-        <v>-0.007482059176866129</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.009400629738648844</v>
+      </c>
+      <c r="E2">
+        <v>-0.001495509189131644</v>
+      </c>
+      <c r="F2">
+        <v>0.01233879287421146</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,220 +751,316 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.0909025546969565</v>
+        <v>0.09271115445208308</v>
       </c>
       <c r="C4">
-        <v>0.01977464049270867</v>
+        <v>-0.01473753662779753</v>
       </c>
       <c r="D4">
-        <v>-0.07555599120907566</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.08202640755325333</v>
+      </c>
+      <c r="E4">
+        <v>-0.02700688223457178</v>
+      </c>
+      <c r="F4">
+        <v>-0.03214977283933925</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>2.549029363502487e-05</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1.560299073508875e-05</v>
       </c>
       <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>9.330738785982152e-06</v>
+      </c>
+      <c r="E5">
+        <v>4.764525310429698e-05</v>
+      </c>
+      <c r="F5">
+        <v>-3.275541046438036e-05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.1533868676287429</v>
+        <v>0.1614958139589777</v>
       </c>
       <c r="C6">
-        <v>0.02917072773221112</v>
+        <v>-0.02838976586533219</v>
       </c>
       <c r="D6">
-        <v>0.03614466615632806</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.02704632349119902</v>
+      </c>
+      <c r="E6">
+        <v>-0.008908959320128843</v>
+      </c>
+      <c r="F6">
+        <v>-0.04069421252880417</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.06063331412688959</v>
+        <v>0.06212187391236202</v>
       </c>
       <c r="C7">
-        <v>0.001727466971897912</v>
+        <v>0.001620345821781332</v>
       </c>
       <c r="D7">
-        <v>-0.04960344792280089</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.05276502701811162</v>
+      </c>
+      <c r="E7">
+        <v>-0.01293363427707568</v>
+      </c>
+      <c r="F7">
+        <v>-0.049358877440445</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.06181436436418427</v>
+        <v>0.05750117601598027</v>
       </c>
       <c r="C8">
-        <v>-0.01080339513939301</v>
+        <v>0.01243616189526383</v>
       </c>
       <c r="D8">
-        <v>-0.02709692169715564</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03066356838123053</v>
+      </c>
+      <c r="E8">
+        <v>-0.01700939892700253</v>
+      </c>
+      <c r="F8">
+        <v>0.02586694641269095</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.06995451817253567</v>
+        <v>0.07149438361238271</v>
       </c>
       <c r="C9">
-        <v>0.0160539334782276</v>
+        <v>-0.01038015764897853</v>
       </c>
       <c r="D9">
-        <v>-0.07727066122436596</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.08576900954598531</v>
+      </c>
+      <c r="E9">
+        <v>-0.02423777979625878</v>
+      </c>
+      <c r="F9">
+        <v>-0.048696419992768</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.08489053497906801</v>
+        <v>0.08768386356010185</v>
       </c>
       <c r="C10">
-        <v>0.01452009725207764</v>
+        <v>-0.02145690686760629</v>
       </c>
       <c r="D10">
-        <v>0.1644420669739375</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.1595883515575456</v>
+      </c>
+      <c r="E10">
+        <v>0.03238955445287753</v>
+      </c>
+      <c r="F10">
+        <v>0.05758609153447868</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.0910123428360389</v>
+        <v>0.08767301284556055</v>
       </c>
       <c r="C11">
-        <v>0.01717854263685154</v>
+        <v>-0.01127130585339101</v>
       </c>
       <c r="D11">
-        <v>-0.1100225995044966</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.11777364713407</v>
+      </c>
+      <c r="E11">
+        <v>-0.04762813141236003</v>
+      </c>
+      <c r="F11">
+        <v>-0.02387937198297855</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.0956637788968856</v>
+        <v>0.08998258002545104</v>
       </c>
       <c r="C12">
-        <v>0.01476813225628604</v>
+        <v>-0.00837724388239133</v>
       </c>
       <c r="D12">
-        <v>-0.1159611251529772</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.1320503192099685</v>
+      </c>
+      <c r="E12">
+        <v>-0.04677889027098004</v>
+      </c>
+      <c r="F12">
+        <v>-0.03028367205686863</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.04460163740472793</v>
+        <v>0.04368904998234909</v>
       </c>
       <c r="C13">
-        <v>0.00619217577807703</v>
+        <v>-0.002467318206626326</v>
       </c>
       <c r="D13">
-        <v>-0.04296018229240244</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.05375484894483097</v>
+      </c>
+      <c r="E13">
+        <v>0.0003237195245686682</v>
+      </c>
+      <c r="F13">
+        <v>-0.004023141945864019</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.01950663329958239</v>
+        <v>0.02387138018262144</v>
       </c>
       <c r="C14">
-        <v>0.01503209617215729</v>
+        <v>-0.01379501214763404</v>
       </c>
       <c r="D14">
-        <v>-0.02955979662821984</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.03261654990132496</v>
+      </c>
+      <c r="E14">
+        <v>-0.01837967133230008</v>
+      </c>
+      <c r="F14">
+        <v>-0.01302554496410309</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.03353904788815607</v>
+        <v>0.03356583156941692</v>
       </c>
       <c r="C15">
-        <v>0.007473360494462268</v>
+        <v>-0.005207983274233032</v>
       </c>
       <c r="D15">
-        <v>-0.04229340178545173</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.04645728107026567</v>
+      </c>
+      <c r="E15">
+        <v>-0.007567998327671663</v>
+      </c>
+      <c r="F15">
+        <v>-0.02946900058421384</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.0745732731074496</v>
+        <v>0.07253278657653879</v>
       </c>
       <c r="C16">
-        <v>0.007356168124650355</v>
+        <v>-0.001451018623383031</v>
       </c>
       <c r="D16">
-        <v>-0.1142841465699305</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.128551894037281</v>
+      </c>
+      <c r="E16">
+        <v>-0.06159790921447578</v>
+      </c>
+      <c r="F16">
+        <v>-0.02683995153644598</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>-3.543281393249287e-05</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>0.0003004905075957286</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>-0.001348107212523375</v>
+      </c>
+      <c r="E17">
+        <v>-0.001051718790572792</v>
+      </c>
+      <c r="F17">
+        <v>0.00247684963605139</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>-0.01975790481491805</v>
+        <v>0.04024786947406169</v>
       </c>
       <c r="C18">
-        <v>-0.002704834000185249</v>
+        <v>0.002755638094626942</v>
       </c>
       <c r="D18">
-        <v>-0.02507384084794794</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>-0.0156825397752356</v>
+      </c>
+      <c r="E18">
+        <v>0.006631412298548523</v>
+      </c>
+      <c r="F18">
+        <v>0.009965520298452383</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.06299136566685215</v>
+        <v>0.06208405161572735</v>
       </c>
       <c r="C20">
-        <v>0.005238225841903447</v>
+        <v>-0.0008844543093090999</v>
       </c>
       <c r="D20">
-        <v>-0.06935759642396812</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.07866473782301943</v>
+      </c>
+      <c r="E20">
+        <v>-0.05709838332757712</v>
+      </c>
+      <c r="F20">
+        <v>-0.0294612413725617</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.03832429079644512</v>
+        <v>0.04069669936944213</v>
       </c>
       <c r="C21">
-        <v>0.00946387837303813</v>
+        <v>-0.006298679170403744</v>
       </c>
       <c r="D21">
-        <v>-0.03349134738501605</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.03724210741787192</v>
+      </c>
+      <c r="E21">
+        <v>0.001817169981280312</v>
+      </c>
+      <c r="F21">
+        <v>0.02569261539568133</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.04086250600290855</v>
+        <v>0.04428486996538243</v>
       </c>
       <c r="C22">
-        <v>0.001755249125077127</v>
+        <v>-0.0009677505781326437</v>
       </c>
       <c r="D22">
-        <v>0.002213296684847375</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.006268814830947557</v>
+      </c>
+      <c r="E22">
+        <v>-0.03703236623410128</v>
+      </c>
+      <c r="F22">
+        <v>0.05052958303554832</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.04082535346987197</v>
+        <v>0.04426083639441455</v>
       </c>
       <c r="C23">
-        <v>0.001744913742337293</v>
+        <v>-0.0009587399526745735</v>
       </c>
       <c r="D23">
-        <v>0.002190217365757998</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.006283174630005347</v>
+      </c>
+      <c r="E23">
+        <v>-0.03721527218563643</v>
+      </c>
+      <c r="F23">
+        <v>0.05050242936802556</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.08213300483219113</v>
+        <v>0.07857237266075359</v>
       </c>
       <c r="C24">
-        <v>0.007972342150907566</v>
+        <v>-0.002239185852378757</v>
       </c>
       <c r="D24">
-        <v>-0.1151497147063003</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.1207156199974521</v>
+      </c>
+      <c r="E24">
+        <v>-0.04959227162590339</v>
+      </c>
+      <c r="F24">
+        <v>-0.02921261997103085</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.08710568583476733</v>
+        <v>0.08359380636807125</v>
       </c>
       <c r="C25">
-        <v>0.01054071489144098</v>
+        <v>-0.004931541563914391</v>
       </c>
       <c r="D25">
-        <v>-0.1009555024285137</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.1098421614705794</v>
+      </c>
+      <c r="E25">
+        <v>-0.03278667524020704</v>
+      </c>
+      <c r="F25">
+        <v>-0.02692754187185064</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.05780290397102926</v>
+        <v>0.05970529034118095</v>
       </c>
       <c r="C26">
-        <v>0.01741243267738496</v>
+        <v>-0.01443938330410029</v>
       </c>
       <c r="D26">
-        <v>-0.02921667425297762</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.04341179074546789</v>
+      </c>
+      <c r="E26">
+        <v>-0.02915941266500438</v>
+      </c>
+      <c r="F26">
+        <v>0.007960064711522722</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,150 +1231,216 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.1339133814680705</v>
+        <v>0.1421369581972847</v>
       </c>
       <c r="C28">
-        <v>0.01359457027215112</v>
+        <v>-0.02317249210685414</v>
       </c>
       <c r="D28">
-        <v>0.267629663601324</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.2611070505014815</v>
+      </c>
+      <c r="E28">
+        <v>0.06877300773327436</v>
+      </c>
+      <c r="F28">
+        <v>-0.005012934157551632</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.02567790621868525</v>
+        <v>0.02883371915365528</v>
       </c>
       <c r="C29">
-        <v>0.009625876766738659</v>
+        <v>-0.008883764639599851</v>
       </c>
       <c r="D29">
-        <v>-0.02850334418863383</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.03062518665031136</v>
+      </c>
+      <c r="E29">
+        <v>-0.01323502933481624</v>
+      </c>
+      <c r="F29">
+        <v>0.01284470850453909</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.06179690666848588</v>
+        <v>0.05888738223627635</v>
       </c>
       <c r="C30">
-        <v>0.008879238041525366</v>
+        <v>-0.002697416018902524</v>
       </c>
       <c r="D30">
-        <v>-0.07434473468314554</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.08704444367605102</v>
+      </c>
+      <c r="E30">
+        <v>-0.01387756560186899</v>
+      </c>
+      <c r="F30">
+        <v>-0.07834383474709138</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.05035415845512486</v>
+        <v>0.05147081087372492</v>
       </c>
       <c r="C31">
-        <v>0.0171995294076993</v>
+        <v>-0.01606902739291764</v>
       </c>
       <c r="D31">
-        <v>-0.02211504835835323</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.02485660536282068</v>
+      </c>
+      <c r="E31">
+        <v>-0.02860309390630597</v>
+      </c>
+      <c r="F31">
+        <v>8.540320137021249e-05</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.04797059588384594</v>
+        <v>0.05208605993886752</v>
       </c>
       <c r="C32">
-        <v>0.002479331818425026</v>
+        <v>0.001393190997456813</v>
       </c>
       <c r="D32">
-        <v>-0.02481228805748474</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.03414447507706092</v>
+      </c>
+      <c r="E32">
+        <v>-0.0327437511384981</v>
+      </c>
+      <c r="F32">
+        <v>-0.002832545808034138</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.09016536677184335</v>
+        <v>0.08935178683831556</v>
       </c>
       <c r="C33">
-        <v>0.01307808502718991</v>
+        <v>-0.006980934521146537</v>
       </c>
       <c r="D33">
-        <v>-0.08743481617016836</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.1035349905468919</v>
+      </c>
+      <c r="E33">
+        <v>-0.04666754721984848</v>
+      </c>
+      <c r="F33">
+        <v>-0.04314011581700833</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.06873589940332725</v>
+        <v>0.0672455192311134</v>
       </c>
       <c r="C34">
-        <v>0.01542212051079976</v>
+        <v>-0.01038436891825972</v>
       </c>
       <c r="D34">
-        <v>-0.09590333664090012</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.1094373413073445</v>
+      </c>
+      <c r="E34">
+        <v>-0.03562553147878036</v>
+      </c>
+      <c r="F34">
+        <v>-0.03432295916023526</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.02527177847909299</v>
+        <v>0.02673078486126529</v>
       </c>
       <c r="C35">
-        <v>0.003767893580624528</v>
+        <v>-0.003073306357508472</v>
       </c>
       <c r="D35">
-        <v>-0.008201331949434393</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01245573010887497</v>
+      </c>
+      <c r="E35">
+        <v>-0.01310927858493098</v>
+      </c>
+      <c r="F35">
+        <v>-0.0007384589737316552</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.02570911171685865</v>
+        <v>0.02792435415654103</v>
       </c>
       <c r="C36">
-        <v>0.007619945025898123</v>
+        <v>-0.006886478381609297</v>
       </c>
       <c r="D36">
-        <v>-0.03898358348483308</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.03905487952561262</v>
+      </c>
+      <c r="E36">
+        <v>-0.01671699140731899</v>
+      </c>
+      <c r="F36">
+        <v>-0.01389642822257927</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>0.001421560135063684</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>0.0008222495314589363</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>-0.002700121668039123</v>
+      </c>
+      <c r="E37">
+        <v>8.387156374836633e-05</v>
+      </c>
+      <c r="F37">
+        <v>0.001641598064030322</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1223,52 +1451,76 @@
       <c r="D38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.112636482884955</v>
+        <v>0.1013455607897922</v>
       </c>
       <c r="C39">
-        <v>0.02325730717941449</v>
+        <v>-0.01621138276786525</v>
       </c>
       <c r="D39">
-        <v>-0.1483479423022009</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.151179743497774</v>
+      </c>
+      <c r="E39">
+        <v>-0.05941788621219164</v>
+      </c>
+      <c r="F39">
+        <v>-0.02184173983032242</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.03881812917751767</v>
+        <v>0.04405895346827402</v>
       </c>
       <c r="C40">
-        <v>0.009342842360965794</v>
+        <v>-0.007684277261144263</v>
       </c>
       <c r="D40">
-        <v>-0.0207399792439137</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03277316303238205</v>
+      </c>
+      <c r="E40">
+        <v>-0.002457534121833521</v>
+      </c>
+      <c r="F40">
+        <v>0.01677374466623507</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.02527315259087727</v>
+        <v>0.02739860561693018</v>
       </c>
       <c r="C41">
-        <v>0.007319306473161239</v>
+        <v>-0.006875926021361645</v>
       </c>
       <c r="D41">
-        <v>-0.009530529035711537</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01090576296042311</v>
+      </c>
+      <c r="E41">
+        <v>-0.01198909741284538</v>
+      </c>
+      <c r="F41">
+        <v>0.007202245372501705</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1531,56 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.04223221995223386</v>
+        <v>0.04021837295831375</v>
       </c>
       <c r="C43">
-        <v>0.008203356004332914</v>
+        <v>-0.007683119231395349</v>
       </c>
       <c r="D43">
-        <v>-0.01790730512672892</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.01951481131005144</v>
+      </c>
+      <c r="E43">
+        <v>-0.0254226776491447</v>
+      </c>
+      <c r="F43">
+        <v>0.01578481398186761</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.07017177933879191</v>
+        <v>0.07881541444642491</v>
       </c>
       <c r="C44">
-        <v>0.02503300556233578</v>
+        <v>-0.01959294061658839</v>
       </c>
       <c r="D44">
-        <v>-0.09558809614393164</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.09613746188578909</v>
+      </c>
+      <c r="E44">
+        <v>-0.06190106685372801</v>
+      </c>
+      <c r="F44">
+        <v>-0.1678155819094666</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,80 +1591,116 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.02193428882010719</v>
+        <v>0.02480396549906403</v>
       </c>
       <c r="C46">
-        <v>0.00443947537688022</v>
+        <v>-0.003817395631846219</v>
       </c>
       <c r="D46">
-        <v>-0.01067382028412567</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01294848006260229</v>
+      </c>
+      <c r="E46">
+        <v>-0.02740344930777976</v>
+      </c>
+      <c r="F46">
+        <v>0.005311803555917431</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.052026062224884</v>
+        <v>0.05174597191738817</v>
       </c>
       <c r="C47">
-        <v>0.00479084378096297</v>
+        <v>-0.004267063011001491</v>
       </c>
       <c r="D47">
-        <v>-0.007744647319928493</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01114752475909987</v>
+      </c>
+      <c r="E47">
+        <v>-0.02262214141341608</v>
+      </c>
+      <c r="F47">
+        <v>0.03183375274400766</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.04828388692992524</v>
+        <v>0.05093797813828686</v>
       </c>
       <c r="C48">
-        <v>0.004737990670004072</v>
+        <v>-0.002296619028809651</v>
       </c>
       <c r="D48">
-        <v>-0.04546948774748086</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.05003559865792968</v>
+      </c>
+      <c r="E48">
+        <v>0.004798438373756308</v>
+      </c>
+      <c r="F48">
+        <v>-0.01233411619310001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.2005705189177289</v>
+        <v>0.1998813610613373</v>
       </c>
       <c r="C49">
-        <v>0.02194241757731047</v>
+        <v>-0.02040604134353056</v>
       </c>
       <c r="D49">
-        <v>0.01084372664726364</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.004864989397016278</v>
+      </c>
+      <c r="E49">
+        <v>-0.03258000219538673</v>
+      </c>
+      <c r="F49">
+        <v>-0.0478087885978638</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.04987711169239468</v>
+        <v>0.05198366403043336</v>
       </c>
       <c r="C50">
-        <v>0.0132272103007564</v>
+        <v>-0.01177430184593384</v>
       </c>
       <c r="D50">
-        <v>-0.02154856873021834</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.02308270526755644</v>
+      </c>
+      <c r="E50">
+        <v>-0.0296236378186619</v>
+      </c>
+      <c r="F50">
+        <v>-0.01021690822477327</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1405,80 +1711,116 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.1560041938820846</v>
+        <v>0.1495304018947396</v>
       </c>
       <c r="C52">
-        <v>0.02070613204943665</v>
+        <v>-0.01896878168222926</v>
       </c>
       <c r="D52">
-        <v>-0.04417896745631965</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>-0.04248935435232432</v>
+      </c>
+      <c r="E52">
+        <v>-0.02332271594600755</v>
+      </c>
+      <c r="F52">
+        <v>-0.0431166481022361</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.1749593227036119</v>
+        <v>0.1697729989398766</v>
       </c>
       <c r="C53">
-        <v>0.0211865981141002</v>
+        <v>-0.02180509059796946</v>
       </c>
       <c r="D53">
-        <v>-0.008270036768983956</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.005706144544339394</v>
+      </c>
+      <c r="E53">
+        <v>-0.03079283292858943</v>
+      </c>
+      <c r="F53">
+        <v>-0.07558426251232674</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.01675107231073778</v>
+        <v>0.0197687733135273</v>
       </c>
       <c r="C54">
-        <v>0.01234527178466303</v>
+        <v>-0.01098425377247523</v>
       </c>
       <c r="D54">
-        <v>-0.02869234800806646</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.03316981211091585</v>
+      </c>
+      <c r="E54">
+        <v>-0.0211673974624767</v>
+      </c>
+      <c r="F54">
+        <v>0.002368441758415365</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.1177562339281439</v>
+        <v>0.1161068868125924</v>
       </c>
       <c r="C55">
-        <v>0.01876684123944743</v>
+        <v>-0.01897732026396797</v>
       </c>
       <c r="D55">
-        <v>-0.007181637133820026</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.008878188927644762</v>
+      </c>
+      <c r="E55">
+        <v>-0.02641169195661661</v>
+      </c>
+      <c r="F55">
+        <v>-0.04747710215525201</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.1808937479296273</v>
+        <v>0.1760474108879969</v>
       </c>
       <c r="C56">
-        <v>0.01919878476585957</v>
+        <v>-0.01975323009891974</v>
       </c>
       <c r="D56">
-        <v>0.00156205785467404</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.002633889143563849</v>
+      </c>
+      <c r="E56">
+        <v>-0.03290028546374352</v>
+      </c>
+      <c r="F56">
+        <v>-0.05529852393687697</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +1831,376 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.04940907469776579</v>
+        <v>0.0468137166769143</v>
       </c>
       <c r="C58">
-        <v>0.005720615871323659</v>
+        <v>-0.0003304787146438794</v>
       </c>
       <c r="D58">
-        <v>-0.06319896657652606</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.075426701149213</v>
+      </c>
+      <c r="E58">
+        <v>-0.03630356977337285</v>
+      </c>
+      <c r="F58">
+        <v>0.03745233057091429</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.1624451306516739</v>
+        <v>0.1674309812845526</v>
       </c>
       <c r="C59">
-        <v>0.01535471557440722</v>
+        <v>-0.02364192039940432</v>
       </c>
       <c r="D59">
-        <v>0.2236381997248874</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.2188063980514968</v>
+      </c>
+      <c r="E59">
+        <v>0.04939506942750291</v>
+      </c>
+      <c r="F59">
+        <v>0.03882694532090376</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.2380060204064604</v>
+        <v>0.2296749047678741</v>
       </c>
       <c r="C60">
-        <v>0.002624103100399458</v>
+        <v>0.0001442150876284502</v>
       </c>
       <c r="D60">
-        <v>-0.04046846929523229</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.03922012432816034</v>
+      </c>
+      <c r="E60">
+        <v>-0.005882317893536652</v>
+      </c>
+      <c r="F60">
+        <v>-0.004483650666108546</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.08378481214240945</v>
+        <v>0.07731278669964982</v>
       </c>
       <c r="C61">
-        <v>0.01716758572569755</v>
+        <v>-0.0114855068678857</v>
       </c>
       <c r="D61">
-        <v>-0.1081479807282836</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.1160878899955931</v>
+      </c>
+      <c r="E61">
+        <v>-0.0380097351387309</v>
+      </c>
+      <c r="F61">
+        <v>-0.008535156831614035</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.1725716918459833</v>
+        <v>0.1693959991352829</v>
       </c>
       <c r="C62">
-        <v>0.02330566136051591</v>
+        <v>-0.02260435086773484</v>
       </c>
       <c r="D62">
-        <v>0.0001771872321132194</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.006010544092576351</v>
+      </c>
+      <c r="E62">
+        <v>-0.03429690340803599</v>
+      </c>
+      <c r="F62">
+        <v>-0.0413944352794924</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.04195698795089584</v>
+        <v>0.04580825092042882</v>
       </c>
       <c r="C63">
-        <v>0.005540756812615707</v>
+        <v>-0.001783721091625772</v>
       </c>
       <c r="D63">
-        <v>-0.04841941335046733</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.06050549990104052</v>
+      </c>
+      <c r="E63">
+        <v>-0.02446483680548081</v>
+      </c>
+      <c r="F63">
+        <v>-0.001270615135804522</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.1133662630501099</v>
+        <v>0.1109452458552921</v>
       </c>
       <c r="C64">
-        <v>0.01578441436865594</v>
+        <v>-0.01273706421785029</v>
       </c>
       <c r="D64">
-        <v>-0.03160148090541231</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.04238374133097527</v>
+      </c>
+      <c r="E64">
+        <v>-0.02358623091071392</v>
+      </c>
+      <c r="F64">
+        <v>-0.02514110011890578</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.1436834864959728</v>
+        <v>0.1515280980927645</v>
       </c>
       <c r="C65">
-        <v>0.03519143286072359</v>
+        <v>-0.03542707473092927</v>
       </c>
       <c r="D65">
-        <v>0.059793591513572</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.04656269203182192</v>
+      </c>
+      <c r="E65">
+        <v>-0.005906777881494209</v>
+      </c>
+      <c r="F65">
+        <v>-0.03715382715707569</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.1358273658389467</v>
+        <v>0.1220815576788123</v>
       </c>
       <c r="C66">
-        <v>0.02173890920833416</v>
+        <v>-0.0146793845892635</v>
       </c>
       <c r="D66">
-        <v>-0.1278182755471796</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1388419416787124</v>
+      </c>
+      <c r="E66">
+        <v>-0.0641648600637599</v>
+      </c>
+      <c r="F66">
+        <v>-0.02707324153318836</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.06336150095601517</v>
+        <v>0.0559653265271291</v>
       </c>
       <c r="C67">
-        <v>0.005963725235083362</v>
+        <v>-0.003383175779099563</v>
       </c>
       <c r="D67">
-        <v>-0.05384055326098505</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.05706483547516129</v>
+      </c>
+      <c r="E67">
+        <v>-0.01820104746324413</v>
+      </c>
+      <c r="F67">
+        <v>0.03446371319167171</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.1069017905997402</v>
+        <v>0.1169152210963203</v>
       </c>
       <c r="C68">
-        <v>0.02351024714303687</v>
+        <v>-0.03394918189726667</v>
       </c>
       <c r="D68">
-        <v>0.2644327746841591</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.2611577656746871</v>
+      </c>
+      <c r="E68">
+        <v>0.0885965790662593</v>
+      </c>
+      <c r="F68">
+        <v>-0.0008367565513475413</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.03963905502711342</v>
+        <v>0.03843642750793032</v>
       </c>
       <c r="C69">
-        <v>0.002187890599480354</v>
+        <v>-0.001327542108219333</v>
       </c>
       <c r="D69">
-        <v>-0.00633437434286037</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.008481916233856702</v>
+      </c>
+      <c r="E69">
+        <v>-0.0239508591353787</v>
+      </c>
+      <c r="F69">
+        <v>0.0007462526164464119</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.0661164045213848</v>
+        <v>0.06711173391305315</v>
       </c>
       <c r="C70">
-        <v>-0.02451199490707264</v>
+        <v>0.02684254658945646</v>
       </c>
       <c r="D70">
-        <v>-0.008560287494356444</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.02599247934874084</v>
+      </c>
+      <c r="E70">
+        <v>0.0307183806640282</v>
+      </c>
+      <c r="F70">
+        <v>0.1812297321152995</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.1262147500918224</v>
+        <v>0.1369582968287303</v>
       </c>
       <c r="C71">
-        <v>0.02814726512763643</v>
+        <v>-0.03863048182725837</v>
       </c>
       <c r="D71">
-        <v>0.2819706922381426</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.2715634177630104</v>
+      </c>
+      <c r="E71">
+        <v>0.09806181151422537</v>
+      </c>
+      <c r="F71">
+        <v>-0.006301484469806367</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.1381858329528515</v>
+        <v>0.1448547901987586</v>
       </c>
       <c r="C72">
-        <v>0.02803755314408352</v>
+        <v>-0.02851294531237197</v>
       </c>
       <c r="D72">
-        <v>-0.0007795987701738969</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.004727396938158188</v>
+      </c>
+      <c r="E72">
+        <v>-0.03805302942863636</v>
+      </c>
+      <c r="F72">
+        <v>-0.02780213171945796</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.2048722337182698</v>
+        <v>0.2037103593715414</v>
       </c>
       <c r="C73">
-        <v>0.01715656197289882</v>
+        <v>-0.01357450612988533</v>
       </c>
       <c r="D73">
-        <v>-0.00876555747193505</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.01865506000433848</v>
+      </c>
+      <c r="E73">
+        <v>-0.06656251237149743</v>
+      </c>
+      <c r="F73">
+        <v>-0.04171139797309554</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.09325890099083781</v>
+        <v>0.09454020369568047</v>
       </c>
       <c r="C74">
-        <v>0.01456820902309763</v>
+        <v>-0.01413884864302191</v>
       </c>
       <c r="D74">
-        <v>-0.01561779417323459</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.01722244537469847</v>
+      </c>
+      <c r="E74">
+        <v>-0.0444674412808899</v>
+      </c>
+      <c r="F74">
+        <v>-0.05294091006624985</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.1338785799069804</v>
+        <v>0.1262425556128256</v>
       </c>
       <c r="C75">
-        <v>0.0309814377775877</v>
+        <v>-0.02960749940059274</v>
       </c>
       <c r="D75">
-        <v>-0.02692890534059525</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.02986265068881137</v>
+      </c>
+      <c r="E75">
+        <v>-0.05722963435624787</v>
+      </c>
+      <c r="F75">
+        <v>-0.02186921900171742</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2211,516 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.08228480572530872</v>
+        <v>0.09047171835727438</v>
       </c>
       <c r="C77">
-        <v>0.01470392203534892</v>
+        <v>-0.008593494159092037</v>
       </c>
       <c r="D77">
-        <v>-0.1036213932418082</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.1146666538821144</v>
+      </c>
+      <c r="E77">
+        <v>-0.04499118270885851</v>
+      </c>
+      <c r="F77">
+        <v>-0.03359456999630584</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.09973902936382609</v>
+        <v>0.1011183576320867</v>
       </c>
       <c r="C78">
-        <v>0.04416026899288948</v>
+        <v>-0.03908468367516991</v>
       </c>
       <c r="D78">
-        <v>-0.1101578486822366</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1115187267635461</v>
+      </c>
+      <c r="E78">
+        <v>-0.07633066497177655</v>
+      </c>
+      <c r="F78">
+        <v>-0.05241968679253756</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.1654283597768376</v>
+        <v>0.1631953806576124</v>
       </c>
       <c r="C79">
-        <v>0.02580134610662485</v>
+        <v>-0.02481012134104594</v>
       </c>
       <c r="D79">
-        <v>-0.008126996519946771</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.01290066922899299</v>
+      </c>
+      <c r="E79">
+        <v>-0.04446535339654742</v>
+      </c>
+      <c r="F79">
+        <v>-0.01330387178225906</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.0812730927604129</v>
+        <v>0.07976335811723724</v>
       </c>
       <c r="C80">
-        <v>0.001675524584212552</v>
+        <v>0.0004568454265307659</v>
       </c>
       <c r="D80">
-        <v>-0.05699650823935978</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.05407994410720848</v>
+      </c>
+      <c r="E80">
+        <v>-0.03294745911104086</v>
+      </c>
+      <c r="F80">
+        <v>0.02531294672465529</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.1203360181973224</v>
+        <v>0.1167171968692173</v>
       </c>
       <c r="C81">
-        <v>0.03297367363777275</v>
+        <v>-0.03305035314118272</v>
       </c>
       <c r="D81">
-        <v>-0.0161602784241337</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.01452134826237994</v>
+      </c>
+      <c r="E81">
+        <v>-0.05485892270922144</v>
+      </c>
+      <c r="F81">
+        <v>-0.01894817058246226</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.1658682945416997</v>
+        <v>0.1655432877052198</v>
       </c>
       <c r="C82">
-        <v>0.02622714133838709</v>
+        <v>-0.02719843399677063</v>
       </c>
       <c r="D82">
-        <v>-0.01024820308876724</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.002789617379807693</v>
+      </c>
+      <c r="E82">
+        <v>-0.02869160817755128</v>
+      </c>
+      <c r="F82">
+        <v>-0.08251526899834975</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.06382023157782381</v>
+        <v>0.05753694050846402</v>
       </c>
       <c r="C83">
-        <v>0.005605146137760086</v>
+        <v>-0.003426238113578237</v>
       </c>
       <c r="D83">
-        <v>-0.04283046701010353</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.04808348824845547</v>
+      </c>
+      <c r="E83">
+        <v>-0.001522301742715688</v>
+      </c>
+      <c r="F83">
+        <v>0.03523587529740414</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.06197381968361816</v>
+        <v>0.05653417428398527</v>
       </c>
       <c r="C84">
-        <v>0.01391627797647246</v>
+        <v>-0.01093019650044898</v>
       </c>
       <c r="D84">
-        <v>-0.06948175672430139</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.07204397916954222</v>
+      </c>
+      <c r="E84">
+        <v>-0.01367773060362771</v>
+      </c>
+      <c r="F84">
+        <v>-0.01493893793081525</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.1388805962389644</v>
+        <v>0.1348143981665745</v>
       </c>
       <c r="C85">
-        <v>0.02998227451019093</v>
+        <v>-0.02975952254157769</v>
       </c>
       <c r="D85">
-        <v>-0.008934987165197123</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.009776019005970693</v>
+      </c>
+      <c r="E85">
+        <v>-0.0367389644614769</v>
+      </c>
+      <c r="F85">
+        <v>-0.04808606140070842</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.1012471523712492</v>
+        <v>0.09338397526759588</v>
       </c>
       <c r="C86">
-        <v>-0.002824313138637877</v>
+        <v>0.005602941035994688</v>
       </c>
       <c r="D86">
-        <v>-0.00825750449686683</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.0523257791931682</v>
+      </c>
+      <c r="E86">
+        <v>-0.2213795891186141</v>
+      </c>
+      <c r="F86">
+        <v>0.8987033995855029</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.09712282719011711</v>
+        <v>0.09304618244672058</v>
       </c>
       <c r="C87">
-        <v>0.0283409835907102</v>
+        <v>-0.01962045350257928</v>
       </c>
       <c r="D87">
-        <v>-0.07357953363128075</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.09584988205414997</v>
+      </c>
+      <c r="E87">
+        <v>0.05165939049831249</v>
+      </c>
+      <c r="F87">
+        <v>-0.05087465992673182</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.06184181897074656</v>
+        <v>0.06082817570234984</v>
       </c>
       <c r="C88">
-        <v>0.005314239968807285</v>
+        <v>-0.002797894283308109</v>
       </c>
       <c r="D88">
-        <v>-0.05201969450432301</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.05030752696859953</v>
+      </c>
+      <c r="E88">
+        <v>-0.02412844236473301</v>
+      </c>
+      <c r="F88">
+        <v>-0.0151953193751219</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.1181498042369237</v>
+        <v>0.1268705767821827</v>
       </c>
       <c r="C89">
-        <v>0.00472924728690821</v>
+        <v>-0.01387574180628821</v>
       </c>
       <c r="D89">
-        <v>0.2478271042455527</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.2442195863196715</v>
+      </c>
+      <c r="E89">
+        <v>0.09256024346394419</v>
+      </c>
+      <c r="F89">
+        <v>0.00753326497844761</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.1384028952163066</v>
+        <v>0.151914174653288</v>
       </c>
       <c r="C90">
-        <v>0.0240622749105983</v>
+        <v>-0.03525322227227982</v>
       </c>
       <c r="D90">
-        <v>0.2665709917019478</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.2684468922484084</v>
+      </c>
+      <c r="E90">
+        <v>0.1141542014070649</v>
+      </c>
+      <c r="F90">
+        <v>0.009423002617120393</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.1211000563865195</v>
+        <v>0.1203226614487643</v>
       </c>
       <c r="C91">
-        <v>0.020654689310784</v>
+        <v>-0.02128861796481187</v>
       </c>
       <c r="D91">
-        <v>0.01581992736635422</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.01582891029664454</v>
+      </c>
+      <c r="E91">
+        <v>-0.05423120825636125</v>
+      </c>
+      <c r="F91">
+        <v>0.000963366696472116</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.139963971996318</v>
+        <v>0.1476556058706865</v>
       </c>
       <c r="C92">
-        <v>0.01508670436536922</v>
+        <v>-0.02655138105462066</v>
       </c>
       <c r="D92">
-        <v>0.2994631747625466</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.2915362799416336</v>
+      </c>
+      <c r="E92">
+        <v>0.101351942590595</v>
+      </c>
+      <c r="F92">
+        <v>0.01968970864642436</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.1410293826379554</v>
+        <v>0.1529209275473025</v>
       </c>
       <c r="C93">
-        <v>0.02041080957489736</v>
+        <v>-0.03033112762774636</v>
       </c>
       <c r="D93">
-        <v>0.268258895564977</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.2647496308635039</v>
+      </c>
+      <c r="E93">
+        <v>0.07637915110081231</v>
+      </c>
+      <c r="F93">
+        <v>-0.002173235785749003</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.1340678331852845</v>
+        <v>0.1267708192277027</v>
       </c>
       <c r="C94">
-        <v>0.02752060770581619</v>
+        <v>-0.02580508722805508</v>
       </c>
       <c r="D94">
-        <v>-0.04028796911318252</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.04055916511755636</v>
+      </c>
+      <c r="E94">
+        <v>-0.05713087869637333</v>
+      </c>
+      <c r="F94">
+        <v>-0.03290550928579297</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.1246167974589298</v>
+        <v>0.1275614282223393</v>
       </c>
       <c r="C95">
-        <v>0.009578694287299653</v>
+        <v>-0.003910294840281586</v>
       </c>
       <c r="D95">
-        <v>-0.08726415920226274</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.0989386336405446</v>
+      </c>
+      <c r="E95">
+        <v>-0.05462119716195936</v>
+      </c>
+      <c r="F95">
+        <v>-0.001787674121549543</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.1229288087126933</v>
+        <v>0.1177358965876248</v>
       </c>
       <c r="C96">
-        <v>-0.9866653065258527</v>
+        <v>0.9861826811924075</v>
       </c>
       <c r="D96">
-        <v>0.01565940624022167</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>0.05185660318467978</v>
+      </c>
+      <c r="E96">
+        <v>-0.05211304124381145</v>
+      </c>
+      <c r="F96">
+        <v>-0.04236139583660869</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.1955398824992325</v>
+        <v>0.1963422084138526</v>
       </c>
       <c r="C97">
-        <v>-0.004066071569383817</v>
+        <v>0.004605676321416933</v>
       </c>
       <c r="D97">
-        <v>0.02040097777264461</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.0218208800406973</v>
+      </c>
+      <c r="E97">
+        <v>-0.02320394301438883</v>
+      </c>
+      <c r="F97">
+        <v>0.1193557256823796</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.1986178017798101</v>
+        <v>0.2048693615887326</v>
       </c>
       <c r="C98">
-        <v>0.01164309147258715</v>
+        <v>-0.007978144414156028</v>
       </c>
       <c r="D98">
-        <v>-0.010857032234748</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.01503176374708724</v>
+      </c>
+      <c r="E98">
+        <v>0.07605835105555335</v>
+      </c>
+      <c r="F98">
+        <v>0.09209573825536804</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.05572953716678533</v>
+        <v>0.05555412991296722</v>
       </c>
       <c r="C99">
-        <v>-0.001759659711875116</v>
+        <v>0.003895810174549312</v>
       </c>
       <c r="D99">
-        <v>-0.03044261288657201</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.03872422661160727</v>
+      </c>
+      <c r="E99">
+        <v>-0.02172091545514571</v>
+      </c>
+      <c r="F99">
+        <v>-0.004426740476111482</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>-0.1425649408520451</v>
+        <v>0.1301342526288559</v>
       </c>
       <c r="C100">
-        <v>-0.03863781888433497</v>
+        <v>0.05118887477578171</v>
       </c>
       <c r="D100">
-        <v>-0.3947686806165221</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>-0.352647960307341</v>
+      </c>
+      <c r="E100">
+        <v>0.8858533157294965</v>
+      </c>
+      <c r="F100">
+        <v>0.1470890609544913</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.02551187095896938</v>
+        <v>0.02876767921040678</v>
       </c>
       <c r="C101">
-        <v>0.009526328543282409</v>
+        <v>-0.008891322962195698</v>
       </c>
       <c r="D101">
-        <v>-0.02813988052734492</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.03031056190429352</v>
+      </c>
+      <c r="E101">
+        <v>-0.01265892609973878</v>
+      </c>
+      <c r="F101">
+        <v>0.01413968971304306</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
